--- a/Quellen und Vorlagen/Excell-Sheets/statistic_id321703_beliebteste-app-kategorien-im-google-play-store-weltweit-2014.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/statistic_id321703_beliebteste-app-kategorien-im-google-play-store-weltweit-2014.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s.bohn/Developer/Bachelorarbeit_Repo/Ausarbeitung_LaTeX/Excell-Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian Bohn\Developer\Bachelorarbeit_Repo\Quellen und Vorlagen\Excell-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="46640" yWindow="-1680" windowWidth="22020" windowHeight="14520" activeTab="1"/>
+    <workbookView xWindow="46635" yWindow="-1680" windowWidth="22020" windowHeight="14520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -235,81 +235,16 @@
     <cellStyle name="Currency [0]" xfId="3"/>
     <cellStyle name="Normal" xfId="6"/>
     <cellStyle name="Percent" xfId="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -338,10 +273,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -349,7 +281,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE" sz="1600" baseline="0"/>
+              <a:rPr lang="de-DE" sz="1600" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Beliebteste App-Kategorien im Google Play Store weltweit 2014 in Prozent</a:t>
             </a:r>
           </a:p>
@@ -371,10 +307,7 @@
           <a:pPr>
             <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -484,6 +417,27 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.688951442646024E-2"/>
+                  <c:y val="-3.8684719535783366E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -499,12 +453,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -521,21 +472,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -590,7 +527,7 @@
                   <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0">
-                  <c:v>37.0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -604,7 +541,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -634,10 +571,7 @@
           <a:pPr>
             <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -658,10 +592,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -680,7 +611,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1249,15 +1180,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4089400</xdr:colOff>
+      <xdr:colOff>4089399</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>127001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1603,33 +1534,33 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1637,7 +1568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1645,7 +1576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1661,7 +1592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1669,7 +1600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1677,7 +1608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1685,7 +1616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1693,7 +1624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1701,12 +1632,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1714,7 +1645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1722,7 +1653,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1730,7 +1661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1756,28 +1687,28 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="100.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1788,7 +1719,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
@@ -1799,7 +1730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1810,7 +1741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1821,7 +1752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1832,7 +1763,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1845,7 +1776,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="95" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Quellen und Vorlagen/Excell-Sheets/statistic_id321703_beliebteste-app-kategorien-im-google-play-store-weltweit-2014.xlsx
+++ b/Quellen und Vorlagen/Excell-Sheets/statistic_id321703_beliebteste-app-kategorien-im-google-play-store-weltweit-2014.xlsx
@@ -271,7 +271,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -281,12 +281,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE" sz="1600" baseline="0">
+              <a:rPr lang="de-DE" sz="1400" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Beliebteste App-Kategorien im Google Play Store weltweit 2014 in Prozent</a:t>
+              <a:t>Weltweit beliebteste App-Kategorien des Google Play Store in 2014</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -305,7 +305,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
